--- a/TedoneItemAssignmentTable30APR21.xlsx
+++ b/TedoneItemAssignmentTable30APR21.xlsx
@@ -72130,4 +72130,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>